--- a/data/抽奖结果.xlsx
+++ b/data/抽奖结果.xlsx
@@ -1,24 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/v_hanjialun/Desktop/GitHub/仓库/test/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2326778E-255B-D943-89D1-1CAFE94A7B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="抽奖结果" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>工号</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>部门</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -43,13 +72,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,275 +411,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>工号</v>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="str">
-        <v>姓名</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" t="str">
-        <v>部门</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>特别奖</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>特等奖</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>一等奖</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>二等奖</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>三等奖</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>四等奖</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>五等奖</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>000108</v>
-      </c>
-      <c r="B9" t="str">
-        <v>贾蓉</v>
-      </c>
-      <c r="C9" t="str">
-        <v>红楼梦</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>000060</v>
-      </c>
-      <c r="B10" t="str">
-        <v>西蒙</v>
-      </c>
-      <c r="C10" t="str">
-        <v>ATP</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>000066</v>
-      </c>
-      <c r="B11" t="str">
-        <v>索萨</v>
-      </c>
-      <c r="C11" t="str">
-        <v>ATP</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>000086</v>
-      </c>
-      <c r="B12" t="str">
-        <v>王熙凤</v>
-      </c>
-      <c r="C12" t="str">
-        <v>红楼梦</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>000005</v>
-      </c>
-      <c r="B13" t="str">
-        <v>卡普</v>
-      </c>
-      <c r="C13" t="str">
-        <v>WTA</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>000207</v>
-      </c>
-      <c r="B14" t="str">
-        <v>药官</v>
-      </c>
-      <c r="C14" t="str">
-        <v>红楼梦</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>000026</v>
-      </c>
-      <c r="B15" t="str">
-        <v>谢淑薇</v>
-      </c>
-      <c r="C15" t="str">
-        <v>WTA</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>000095</v>
-      </c>
-      <c r="B16" t="str">
-        <v>紫鹃</v>
-      </c>
-      <c r="C16" t="str">
-        <v>红楼梦</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>六等奖</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>000050</v>
-      </c>
-      <c r="B18" t="str">
-        <v>伊斯内尔</v>
-      </c>
-      <c r="C18" t="str">
-        <v>ATP</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>000070</v>
-      </c>
-      <c r="B19" t="str">
-        <v>布莱恩</v>
-      </c>
-      <c r="C19" t="str">
-        <v>ATP</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>000011</v>
-      </c>
-      <c r="B20" t="str">
-        <v>大威</v>
-      </c>
-      <c r="C20" t="str">
-        <v>WTA</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>000200</v>
-      </c>
-      <c r="B21" t="str">
-        <v>琪官</v>
-      </c>
-      <c r="C21" t="str">
-        <v>红楼梦</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>000307</v>
-      </c>
-      <c r="B22" t="str">
-        <v>阿姆</v>
-      </c>
-      <c r="C22" t="str">
-        <v>MUSIC</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>000203</v>
-      </c>
-      <c r="B23" t="str">
-        <v>宝官</v>
-      </c>
-      <c r="C23" t="str">
-        <v>红楼梦</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>000067</v>
-      </c>
-      <c r="B24" t="str">
-        <v>哈赛</v>
-      </c>
-      <c r="C24" t="str">
-        <v>ATP</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>000308</v>
-      </c>
-      <c r="B25" t="str">
-        <v>火星哥</v>
-      </c>
-      <c r="C25" t="str">
-        <v>MUSIC</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>000302</v>
-      </c>
-      <c r="B26" t="str">
-        <v>阿黛尔</v>
-      </c>
-      <c r="C26" t="str">
-        <v>MUSIC</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>000201</v>
-      </c>
-      <c r="B27" t="str">
-        <v>碧昂丝</v>
-      </c>
-      <c r="C27" t="str">
-        <v>MUSIC</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>000104</v>
-      </c>
-      <c r="B28" t="str">
-        <v>贾敬</v>
-      </c>
-      <c r="C28" t="str">
-        <v>红楼梦</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C28"/>
+    <ignoredError sqref="A1:C1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>